--- a/Equipment Capacity/manual_s.xlsx
+++ b/Equipment Capacity/manual_s.xlsx
@@ -444,7 +444,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1050" b="0" baseline="0"/>
-              <a:t>Increasing CFM/ton increases efficiency by 13%</a:t>
+              <a:t>Increasing CFM increases efficiency by 15+%</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1050" b="0"/>
           </a:p>
@@ -457,7 +457,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -473,17 +473,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1075</c:v>
                 </c:pt>
@@ -493,15 +488,18 @@
                 <c:pt idx="2">
                   <c:v>1370</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$4</c:f>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>26.363999999999997</c:v>
                 </c:pt>
@@ -511,10 +509,13 @@
                 <c:pt idx="2">
                   <c:v>29.904</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.478000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -524,8 +525,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162835840"/>
-        <c:axId val="162836416"/>
+        <c:axId val="140365184"/>
+        <c:axId val="140365760"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -603,11 +604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162837568"/>
-        <c:axId val="162836992"/>
+        <c:axId val="140366912"/>
+        <c:axId val="140366336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162835840"/>
+        <c:axId val="140365184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -637,15 +638,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162836416"/>
+        <c:crossAx val="140365760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162836416"/>
+        <c:axId val="140365760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
+          <c:max val="32"/>
           <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -656,6 +657,15 @@
             <c:rich>
               <a:bodyPr rot="0" vert="horz"/>
               <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sensible</a:t>
+                </a:r>
+              </a:p>
               <a:p>
                 <a:pPr>
                   <a:defRPr/>
@@ -692,17 +702,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162835840"/>
+        <c:crossAx val="140365184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162836992"/>
+        <c:axId val="140366336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.14000000000000001"/>
-          <c:min val="0"/>
+          <c:max val="0.2"/>
+          <c:min val="-4.0000000000000008E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -747,12 +757,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162837568"/>
+        <c:crossAx val="140366912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4.0000000000000008E-2"/>
+        <c:minorUnit val="4.000000000000001E-3"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162837568"/>
+        <c:axId val="140366912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,7 +774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162836992"/>
+        <c:crossAx val="140366336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -822,14 +834,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -838,14 +850,14 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5890260" y="3566160"/>
+          <a:off x="5890260" y="3672840"/>
           <a:ext cx="4579620" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="12700">
-          <a:prstDash val="solid"/>
+          <a:prstDash val="dash"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -870,13 +882,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -885,8 +897,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8389620" y="2964180"/>
-          <a:ext cx="1653540" cy="396240"/>
+          <a:off x="8389620" y="2933700"/>
+          <a:ext cx="1912620" cy="396240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -915,7 +927,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1200"/>
             <a:t>Cooling Load = 26 kBTUh</a:t>
           </a:r>
         </a:p>
@@ -933,8 +945,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -944,7 +956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8702040" y="3208020"/>
-          <a:ext cx="0" cy="350520"/>
+          <a:ext cx="0" cy="464820"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6828,10 +6840,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6902,7 +6914,7 @@
         <v>26</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F4" si="1">D3/$D$2-1</f>
+        <f t="shared" ref="F3:F5" si="1">D3/$D$2-1</f>
         <v>6.304050978607223E-2</v>
       </c>
     </row>
@@ -6927,6 +6939,27 @@
       <c r="F4" s="11">
         <f t="shared" si="1"/>
         <v>0.13427401001365502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1500</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <v>31.478000000000002</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="1"/>
+        <v>0.19397663480503735</v>
       </c>
     </row>
   </sheetData>
